--- a/aggregated_data.xlsx
+++ b/aggregated_data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\Afc_ExpeMemoire_VersionPC\analyses\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37304B60-424E-40BC-A3DB-B57893D04E99}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,11 +96,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -116,19 +107,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -170,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,27 +185,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,24 +219,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,18 +394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -478,11 +421,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1">
@@ -498,9 +441,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>2</v>
       </c>
@@ -514,9 +457,9 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>3</v>
       </c>
@@ -530,9 +473,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>4</v>
       </c>
@@ -546,9 +489,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -562,9 +505,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1">
@@ -580,9 +523,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -596,9 +539,9 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>3</v>
       </c>
@@ -612,9 +555,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -628,9 +571,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -644,11 +587,11 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1">
@@ -664,9 +607,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>2</v>
       </c>
@@ -680,9 +623,9 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>3</v>
       </c>
@@ -696,9 +639,9 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>4</v>
       </c>
@@ -712,9 +655,9 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>5</v>
       </c>
@@ -728,9 +671,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1">
@@ -746,9 +689,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1">
         <v>2</v>
       </c>
@@ -762,9 +705,9 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1">
         <v>3</v>
       </c>
@@ -778,9 +721,9 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1">
         <v>4</v>
       </c>
@@ -794,9 +737,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1">
         <v>5</v>
       </c>
@@ -810,11 +753,11 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
         <v>3</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="1">
@@ -830,9 +773,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1">
         <v>2</v>
       </c>
@@ -846,9 +789,9 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1">
         <v>3</v>
       </c>
@@ -862,9 +805,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1">
         <v>4</v>
       </c>
@@ -878,9 +821,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1">
         <v>5</v>
       </c>
@@ -894,9 +837,9 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1">
@@ -912,9 +855,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1">
         <v>2</v>
       </c>
@@ -928,9 +871,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1">
         <v>3</v>
       </c>
@@ -944,9 +887,9 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="1">
         <v>4</v>
       </c>
@@ -960,9 +903,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="1">
         <v>5</v>
       </c>
@@ -976,177 +919,177 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
         <v>5</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E32">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F32">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E33">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F33">
-        <v>69.444444444444443</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1">
         <v>3</v>
       </c>
       <c r="D34">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E34">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F34">
-        <v>74.444444444444443</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1">
         <v>4</v>
       </c>
       <c r="D35">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E35">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="F35">
-        <v>73.75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1">
         <v>5</v>
       </c>
       <c r="D36">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E36">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F36">
-        <v>71.666666666666671</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E37">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F37">
-        <v>70.555555555555557</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="1">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E38">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F38">
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="1">
         <v>3</v>
       </c>
       <c r="D39">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E39">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F39">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1">
         <v>4</v>
       </c>
       <c r="D40">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E40">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="F40">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1">
         <v>5</v>
       </c>
       <c r="D41">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E41">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="F41">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
         <v>6</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="1">
@@ -1162,9 +1105,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="1">
         <v>2</v>
       </c>
@@ -1178,9 +1121,9 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="1">
         <v>3</v>
       </c>
@@ -1194,9 +1137,9 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
       <c r="C45" s="1">
         <v>4</v>
       </c>
@@ -1210,9 +1153,9 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="1">
         <v>5</v>
       </c>
@@ -1226,9 +1169,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="1">
@@ -1244,9 +1187,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="1">
         <v>2</v>
       </c>
@@ -1260,9 +1203,9 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="1">
         <v>3</v>
       </c>
@@ -1276,9 +1219,9 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="1">
         <v>4</v>
       </c>
@@ -1292,9 +1235,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="1">
         <v>5</v>
       </c>
@@ -1308,11 +1251,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
         <v>7</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="1">
@@ -1328,9 +1271,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="1">
         <v>2</v>
       </c>
@@ -1344,9 +1287,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
       <c r="C54" s="1">
         <v>3</v>
       </c>
@@ -1360,9 +1303,9 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
       <c r="C55" s="1">
         <v>4</v>
       </c>
@@ -1376,9 +1319,9 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
       <c r="C56" s="1">
         <v>5</v>
       </c>
@@ -1392,9 +1335,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2" t="s">
+    <row r="57" spans="1:6">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="1">
@@ -1410,9 +1353,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
       <c r="C58" s="1">
         <v>2</v>
       </c>
@@ -1426,9 +1369,9 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
       <c r="C59" s="1">
         <v>3</v>
       </c>
@@ -1442,9 +1385,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
       <c r="C60" s="1">
         <v>4</v>
       </c>
@@ -1458,9 +1401,9 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
       <c r="C61" s="1">
         <v>5</v>
       </c>
@@ -1474,11 +1417,11 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
         <v>8</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="1">
@@ -1494,9 +1437,9 @@
         <v>71.25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
       <c r="C63" s="1">
         <v>2</v>
       </c>
@@ -1510,9 +1453,9 @@
         <v>71.25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
       <c r="C64" s="1">
         <v>3</v>
       </c>
@@ -1526,9 +1469,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
       <c r="C65" s="1">
         <v>4</v>
       </c>
@@ -1542,9 +1485,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
       <c r="C66" s="1">
         <v>5</v>
       </c>
@@ -1558,9 +1501,9 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2" t="s">
+    <row r="67" spans="1:6">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="1">
@@ -1573,12 +1516,12 @@
         <v>44</v>
       </c>
       <c r="F67">
-        <v>73.333333333333329</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+        <v>73.33333333333333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
       <c r="C68" s="1">
         <v>2</v>
       </c>
@@ -1589,12 +1532,12 @@
         <v>37</v>
       </c>
       <c r="F68">
-        <v>61.666666666666657</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+        <v>61.66666666666666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
       <c r="C69" s="1">
         <v>3</v>
       </c>
@@ -1608,9 +1551,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
       <c r="C70" s="1">
         <v>4</v>
       </c>
@@ -1624,9 +1567,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
       <c r="C71" s="1">
         <v>5</v>
       </c>
@@ -1637,14 +1580,14 @@
         <v>35</v>
       </c>
       <c r="F71">
-        <v>58.333333333333343</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+        <v>58.33333333333334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
         <v>9</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="1">
@@ -1660,9 +1603,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
       <c r="C73" s="1">
         <v>2</v>
       </c>
@@ -1676,9 +1619,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
       <c r="C74" s="1">
         <v>3</v>
       </c>
@@ -1692,9 +1635,9 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
       <c r="C75" s="1">
         <v>4</v>
       </c>
@@ -1708,9 +1651,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
       <c r="C76" s="1">
         <v>5</v>
       </c>
@@ -1724,9 +1667,9 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2" t="s">
+    <row r="77" spans="1:6">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="1">
@@ -1742,9 +1685,9 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
       <c r="C78" s="1">
         <v>2</v>
       </c>
@@ -1758,9 +1701,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
       <c r="C79" s="1">
         <v>3</v>
       </c>
@@ -1774,9 +1717,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
       <c r="C80" s="1">
         <v>4</v>
       </c>
@@ -1790,9 +1733,9 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
       <c r="C81" s="1">
         <v>5</v>
       </c>
@@ -1806,11 +1749,11 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
         <v>10</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1">
@@ -1826,9 +1769,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
       <c r="C83" s="1">
         <v>2</v>
       </c>
@@ -1842,9 +1785,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
       <c r="C84" s="1">
         <v>3</v>
       </c>
@@ -1858,9 +1801,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
       <c r="C85" s="1">
         <v>4</v>
       </c>
@@ -1874,9 +1817,9 @@
         <v>66.25</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
       <c r="C86" s="1">
         <v>5</v>
       </c>
@@ -1890,9 +1833,9 @@
         <v>66.25</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2" t="s">
+    <row r="87" spans="1:6">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="1">
@@ -1908,9 +1851,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
       <c r="C88" s="1">
         <v>2</v>
       </c>
@@ -1924,9 +1867,9 @@
         <v>71.25</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
       <c r="C89" s="1">
         <v>3</v>
       </c>
@@ -1940,9 +1883,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
       <c r="C90" s="1">
         <v>4</v>
       </c>
@@ -1956,9 +1899,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
       <c r="C91" s="1">
         <v>5</v>
       </c>
@@ -1974,12 +1917,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A42:A51"/>
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="A62:A71"/>
     <mergeCell ref="A72:A81"/>
@@ -1996,11 +1938,12 @@
     <mergeCell ref="B47:B51"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B87:B91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aggregated_data.xlsx
+++ b/aggregated_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>presented</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>percentage_correct</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
   <si>
     <t>subject</t>
@@ -395,21 +398,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -420,13 +423,16 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -440,8 +446,11 @@
       <c r="F2">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
@@ -454,10 +463,13 @@
         <v>153</v>
       </c>
       <c r="F3">
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
@@ -472,8 +484,11 @@
       <c r="F4">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
@@ -488,8 +503,11 @@
       <c r="F5">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -504,11 +522,14 @@
       <c r="F6">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -522,8 +543,11 @@
       <c r="F7">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -536,10 +560,13 @@
         <v>155</v>
       </c>
       <c r="F8">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G8">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -554,8 +581,11 @@
       <c r="F9">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -570,8 +600,11 @@
       <c r="F10">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -584,15 +617,18 @@
         <v>149</v>
       </c>
       <c r="F11">
-        <v>74.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="G11">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -606,8 +642,11 @@
       <c r="F12">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -620,10 +659,13 @@
         <v>143</v>
       </c>
       <c r="F13">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="G13">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
@@ -636,10 +678,13 @@
         <v>157</v>
       </c>
       <c r="F14">
-        <v>78.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G14">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
@@ -652,10 +697,13 @@
         <v>159</v>
       </c>
       <c r="F15">
-        <v>79.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>80</v>
+      </c>
+      <c r="G15">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
@@ -670,11 +718,14 @@
       <c r="F16">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -688,8 +739,11 @@
       <c r="F17">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
@@ -702,10 +756,13 @@
         <v>153</v>
       </c>
       <c r="F18">
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
@@ -718,10 +775,13 @@
         <v>145</v>
       </c>
       <c r="F19">
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="G19">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
@@ -736,8 +796,11 @@
       <c r="F20">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
@@ -750,15 +813,18 @@
         <v>153</v>
       </c>
       <c r="F21">
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -772,8 +838,11 @@
       <c r="F22">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
@@ -786,10 +855,13 @@
         <v>143</v>
       </c>
       <c r="F23">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="G23">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
@@ -804,8 +876,11 @@
       <c r="F24">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
@@ -820,8 +895,11 @@
       <c r="F25">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
@@ -834,910 +912,1075 @@
         <v>155</v>
       </c>
       <c r="F26">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G26">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>55</v>
+      </c>
+      <c r="G27">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>200</v>
+      </c>
+      <c r="E28">
         <v>162</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>200</v>
-      </c>
-      <c r="E28">
-        <v>164</v>
-      </c>
-      <c r="F28">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>200</v>
       </c>
       <c r="E29">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F29">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="G29">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>200</v>
       </c>
       <c r="E30">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F30">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="G30">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
+      </c>
+      <c r="E31">
+        <v>158</v>
+      </c>
+      <c r="F31">
+        <v>79</v>
+      </c>
+      <c r="G31">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
         <v>5</v>
       </c>
-      <c r="D31">
-        <v>200</v>
-      </c>
-      <c r="E31">
+      <c r="D32">
+        <v>200</v>
+      </c>
+      <c r="E32">
         <v>153</v>
       </c>
-      <c r="F31">
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>200</v>
-      </c>
-      <c r="E32">
-        <v>132</v>
-      </c>
       <c r="F32">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="F33">
-        <v>68.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="G33">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E34">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="F34">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="G34">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E35">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="F35">
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>80</v>
+      </c>
+      <c r="G35">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <v>32</v>
+      </c>
+      <c r="F36">
+        <v>80</v>
+      </c>
+      <c r="G36">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1">
         <v>5</v>
       </c>
-      <c r="D36">
-        <v>200</v>
-      </c>
-      <c r="E36">
-        <v>144</v>
-      </c>
-      <c r="F36">
+      <c r="D37">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>25</v>
+      </c>
+      <c r="F37">
+        <v>62</v>
+      </c>
+      <c r="G37">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>29</v>
+      </c>
+      <c r="F38">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>200</v>
-      </c>
-      <c r="E37">
-        <v>140</v>
-      </c>
-      <c r="F37">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>200</v>
-      </c>
-      <c r="E38">
-        <v>134</v>
-      </c>
-      <c r="F38">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E39">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="F39">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>80</v>
+      </c>
+      <c r="G39">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E40">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="F40">
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>85</v>
+      </c>
+      <c r="G40">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>24</v>
+      </c>
+      <c r="F41">
+        <v>60</v>
+      </c>
+      <c r="G41">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
         <v>5</v>
       </c>
-      <c r="D41">
-        <v>200</v>
-      </c>
-      <c r="E41">
-        <v>154</v>
-      </c>
-      <c r="F41">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1">
-        <v>6</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
       <c r="D42">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E42">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="F42">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="G42">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>200</v>
       </c>
       <c r="E43">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F43">
-        <v>68.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="G43">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>200</v>
       </c>
       <c r="E44">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F44">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>68</v>
+      </c>
+      <c r="G44">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>200</v>
       </c>
       <c r="E45">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F45">
-        <v>64.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="G45">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>200</v>
+      </c>
+      <c r="E46">
+        <v>145</v>
+      </c>
+      <c r="F46">
+        <v>72</v>
+      </c>
+      <c r="G46">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1">
         <v>5</v>
       </c>
-      <c r="D46">
-        <v>200</v>
-      </c>
-      <c r="E46">
-        <v>128</v>
-      </c>
-      <c r="F46">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
       <c r="D47">
         <v>200</v>
       </c>
       <c r="E47">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="F47">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="G47">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>200</v>
       </c>
       <c r="E48">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F48">
-        <v>80.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="G48">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <v>200</v>
       </c>
       <c r="E49">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="F49">
-        <v>80.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="G49">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>200</v>
       </c>
       <c r="E50">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F50">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="G50">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>200</v>
+      </c>
+      <c r="E51">
+        <v>139</v>
+      </c>
+      <c r="F51">
+        <v>70</v>
+      </c>
+      <c r="G51">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
         <v>5</v>
       </c>
-      <c r="D51">
-        <v>200</v>
-      </c>
-      <c r="E51">
+      <c r="D52">
+        <v>200</v>
+      </c>
+      <c r="E52">
         <v>154</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>77</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1">
+      <c r="G52">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>200</v>
-      </c>
-      <c r="E52">
-        <v>150</v>
-      </c>
-      <c r="F52">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
       <c r="C53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>200</v>
       </c>
       <c r="E53">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F53">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="G53">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>200</v>
       </c>
       <c r="E54">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F54">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>68</v>
+      </c>
+      <c r="G54">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <v>200</v>
       </c>
       <c r="E55">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F55">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="G55">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>200</v>
+      </c>
+      <c r="E56">
+        <v>129</v>
+      </c>
+      <c r="F56">
+        <v>64</v>
+      </c>
+      <c r="G56">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1">
         <v>5</v>
       </c>
-      <c r="D56">
-        <v>200</v>
-      </c>
-      <c r="E56">
-        <v>156</v>
-      </c>
-      <c r="F56">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
       <c r="D57">
         <v>200</v>
       </c>
       <c r="E57">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="F57">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="G57">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>200</v>
       </c>
       <c r="E58">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F58">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>81</v>
+      </c>
+      <c r="G58">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>200</v>
       </c>
       <c r="E59">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F59">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>80</v>
+      </c>
+      <c r="G59">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>200</v>
       </c>
       <c r="E60">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F60">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>80</v>
+      </c>
+      <c r="G60">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>200</v>
+      </c>
+      <c r="E61">
+        <v>158</v>
+      </c>
+      <c r="F61">
+        <v>79</v>
+      </c>
+      <c r="G61">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1">
         <v>5</v>
       </c>
-      <c r="D61">
-        <v>200</v>
-      </c>
-      <c r="E61">
-        <v>165</v>
-      </c>
-      <c r="F61">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1">
-        <v>8</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
       <c r="D62">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E62">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="F62">
-        <v>71.25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="G62">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>7</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E63">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="F63">
-        <v>71.25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="G63">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E64">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="F64">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E65">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="F65">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>200</v>
+      </c>
+      <c r="E66">
+        <v>147</v>
+      </c>
+      <c r="F66">
+        <v>74</v>
+      </c>
+      <c r="G66">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1">
         <v>5</v>
       </c>
-      <c r="D66">
-        <v>80</v>
-      </c>
-      <c r="E66">
-        <v>55</v>
-      </c>
-      <c r="F66">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
       <c r="D67">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E67">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="F67">
-        <v>73.33333333333333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G67">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C68" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E68">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="F68">
-        <v>61.66666666666666</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="G68">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E69">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="F69">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E70">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="F70">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="G70">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>200</v>
+      </c>
+      <c r="E71">
+        <v>143</v>
+      </c>
+      <c r="F71">
+        <v>72</v>
+      </c>
+      <c r="G71">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1">
         <v>5</v>
       </c>
-      <c r="D71">
-        <v>60</v>
-      </c>
-      <c r="E71">
-        <v>35</v>
-      </c>
-      <c r="F71">
-        <v>58.33333333333334</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1">
-        <v>9</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
       <c r="D72">
         <v>200</v>
       </c>
       <c r="E72">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="F72">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="G72">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>200</v>
       </c>
       <c r="E73">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F73">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="G73">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74">
         <v>200</v>
       </c>
       <c r="E74">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="F74">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <v>200</v>
       </c>
       <c r="E75">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F75">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>68</v>
+      </c>
+      <c r="G75">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>200</v>
+      </c>
+      <c r="E76">
+        <v>135</v>
+      </c>
+      <c r="F76">
+        <v>68</v>
+      </c>
+      <c r="G76">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1">
         <v>5</v>
       </c>
-      <c r="D76">
-        <v>200</v>
-      </c>
-      <c r="E76">
-        <v>129</v>
-      </c>
-      <c r="F76">
-        <v>64.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
       <c r="D77">
         <v>200</v>
       </c>
       <c r="E77">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F77">
-        <v>65.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="G77">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>200</v>
       </c>
       <c r="E78">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F78">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="G78">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79">
         <v>200</v>
       </c>
       <c r="E79">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F79">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="G79">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80">
         <v>200</v>
       </c>
       <c r="E80">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="F80">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="G80">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81">
         <v>200</v>
@@ -1746,204 +1989,493 @@
         <v>143</v>
       </c>
       <c r="F81">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1">
-        <v>10</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G81">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
       <c r="C82" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D82">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E82">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="F82">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="G82">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>9</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E83">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="F83">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="G83">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E84">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="F84">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="G84">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E85">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="F85">
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G85">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>200</v>
+      </c>
+      <c r="E86">
+        <v>128</v>
+      </c>
+      <c r="F86">
+        <v>64</v>
+      </c>
+      <c r="G86">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1">
         <v>5</v>
       </c>
-      <c r="D86">
-        <v>80</v>
-      </c>
-      <c r="E86">
-        <v>53</v>
-      </c>
-      <c r="F86">
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
       <c r="D87">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E87">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="F87">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="G87">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E88">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="F88">
-        <v>71.25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="G88">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E89">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="F89">
         <v>69</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E90">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="F90">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="G90">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>200</v>
+      </c>
+      <c r="E91">
+        <v>151</v>
+      </c>
+      <c r="F91">
+        <v>76</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1">
         <v>5</v>
       </c>
-      <c r="D91">
-        <v>80</v>
-      </c>
-      <c r="E91">
-        <v>61</v>
-      </c>
-      <c r="F91">
-        <v>76.25</v>
+      <c r="D92">
+        <v>200</v>
+      </c>
+      <c r="E92">
+        <v>143</v>
+      </c>
+      <c r="F92">
+        <v>72</v>
+      </c>
+      <c r="G92">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>10</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>200</v>
+      </c>
+      <c r="E93">
+        <v>115</v>
+      </c>
+      <c r="F93">
+        <v>58</v>
+      </c>
+      <c r="G93">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>200</v>
+      </c>
+      <c r="E94">
+        <v>130</v>
+      </c>
+      <c r="F94">
+        <v>65</v>
+      </c>
+      <c r="G94">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>200</v>
+      </c>
+      <c r="E95">
+        <v>120</v>
+      </c>
+      <c r="F95">
+        <v>60</v>
+      </c>
+      <c r="G95">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>200</v>
+      </c>
+      <c r="E96">
+        <v>118</v>
+      </c>
+      <c r="F96">
+        <v>59</v>
+      </c>
+      <c r="G96">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>200</v>
+      </c>
+      <c r="E97">
+        <v>132</v>
+      </c>
+      <c r="F97">
+        <v>66</v>
+      </c>
+      <c r="G97">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>200</v>
+      </c>
+      <c r="E98">
+        <v>131</v>
+      </c>
+      <c r="F98">
+        <v>66</v>
+      </c>
+      <c r="G98">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>200</v>
+      </c>
+      <c r="E99">
+        <v>156</v>
+      </c>
+      <c r="F99">
+        <v>78</v>
+      </c>
+      <c r="G99">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>200</v>
+      </c>
+      <c r="E100">
+        <v>156</v>
+      </c>
+      <c r="F100">
+        <v>78</v>
+      </c>
+      <c r="G100">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>200</v>
+      </c>
+      <c r="E101">
+        <v>149</v>
+      </c>
+      <c r="F101">
+        <v>74</v>
+      </c>
+      <c r="G101">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>200</v>
+      </c>
+      <c r="E102">
+        <v>147</v>
+      </c>
+      <c r="F102">
+        <v>74</v>
+      </c>
+      <c r="G102">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>200</v>
+      </c>
+      <c r="E103">
+        <v>151</v>
+      </c>
+      <c r="F103">
+        <v>76</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>200</v>
+      </c>
+      <c r="E104">
+        <v>143</v>
+      </c>
+      <c r="F104">
+        <v>72</v>
+      </c>
+      <c r="G104">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="30">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="A62:A71"/>
-    <mergeCell ref="A72:A81"/>
-    <mergeCell ref="A82:A91"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="A63:A72"/>
+    <mergeCell ref="A73:A82"/>
+    <mergeCell ref="A83:A92"/>
+    <mergeCell ref="A93:A104"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="B99:B104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
